--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -478,2100 +478,2100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Call for Supplier`s Registration for the period (January 2026 to December 2028)</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MeDRA - Methodist Development and Relief Agency</t>
+          <t>Doves Life Assurance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Expires 09 May 2025</t>
+          <t>Bulawayo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Expires 09 May 2025</t>
+          <t>23 Apr 2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Methodist Development and Relief Agency (MeDRA) Call for Supplier`s Registration for the period (January 2026 to December 2028) ABOUT MEDRA MeDRA is a faith-based local NGO which is part of the mission of The Methodist Church in Zimbabwe whose mandate is to implement Humanitarian and Developmental programmes that promotes socio-economic …</t>
+          <t>Job Title : Cashier Location: Bulawayo Department section: Finance Incumbent Superior : Group Accountant Incumbent Superior : Accountant Subordinates : None Grade : B2 Section 02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Cashier. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/call-for-suppliers-registration-for-the-period-january-2026-to-december-2028-63336/</t>
+          <t>https://vacancymail.co.zw/jobs/cashier-63342/</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:02</t>
+          <t>2025-04-17 10:39:33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Automachanic</t>
+          <t>Fraud Risk &amp; Forensic Audit Consultant</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lightguard Security</t>
+          <t>Enterprise Accounting Services</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>17 May 2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5 years experienced auto mechanic responsible to attend, diagnose, repair, maintain and report all auto mechanic issues within our organisation</t>
+          <t>A professional advisory firm is seeking an experienced professional to support sensitive fraud investigations, conduct forensic audits, and provide expert insight in legal proceedings.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Fraud Risk &amp; Forensic Audit Consultant. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/automachanic-63333/</t>
+          <t>https://vacancymail.co.zw/jobs/fraud-risk-forensic-audit-consultant-63351/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:03</t>
+          <t>2025-04-17 10:39:34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mechanic</t>
+          <t>Tax Consultant – Transfer Pricing and Income tax</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lightguard Security</t>
+          <t>Enterprise Accounting Services</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5 years experienced Mechanic who will be responsible to attend, maintain, repair and diagnose our company vehicles for smooth running of the business</t>
+          <t>A professional advisory firm is seeking an experienced Transfer Pricing and Income Tax Consultant to support tax advisory, documentation, and compliance for cross-border transactions.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Tax Consultant – Transfer Pricing and Income tax. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/mechanic-63332/</t>
+          <t>https://vacancymail.co.zw/jobs/tax-consultant-transfer-pricing-and-income-tax-63350/</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:03</t>
+          <t>2025-04-17 10:39:35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IT and Support Graduate trainee</t>
+          <t>Commission-Based Direct Sales Agents</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lightguard Security</t>
+          <t>Commission-Based Solutions Inc.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>We are looking for a highly motivated and dynamic IT Graduate Trainee with a Business Management background, IT support knowledge, and an interest in sales and marketing. This role is ideal for someone eager to expand their career by combining IT expertise with sales and marketing responsibilities.</t>
+          <t>You’ll be responsible for finding clients (SSB &amp; Government pensioners), assisting with loan applications, and submitting complete documents for processing. Opening deposit accounts. You earn based on performance— *the more you bring in, the more you earn!</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Commission-Based Direct Sales Agents. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/it-and-support-graduate-trainee-63334/</t>
+          <t>https://vacancymail.co.zw/jobs/commission-based-direct-sales-agents-63349/</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:04</t>
+          <t>2025-04-17 10:39:36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baseline Assessment for the project, “Integrated Emergency Response for El Niño Drought Affected Communities in Zimbabwe,</t>
+          <t>INVITATION FOR REGISTRATION OF SUPPLIERS 2025- 2026 : SCORE AGAINST POVERTY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oxfam</t>
+          <t>Local NGO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>Masvingo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Oxfam is a global movement of people who are fighting inequality to end poverty and injustice. Across regions, from the local to the global, we work with people to bring change that lasts. OVERVIEW Title and brief description of the assignment Baseline Assessment for the project, “Integrated Emergency Response for …</t>
+          <t>This is inviting prospective and existing bona fide suppliers to apply to be considered for inclusion in the list of suppliers in the following categories. 1. (Category Description) Agriculture, Farm (Equipment and Supplies and Livestock (Subcategory) Agricultural -Other Animal feeds Farm equipment and tools (both powered and manual) Livestock Seeds, …</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a INVITATION FOR REGISTRATION OF SUPPLIERS 2025- 2026 : SCORE AGAINST POVERTY. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/baseline-assessment-for-the-project-integrated-emergency-response-for-el-nino-drought-affected-communities-in-zimbabwe-63337/</t>
+          <t>https://vacancymail.co.zw/jobs/invitation-for-registration-of-suppliers-2025-2026-score-against-poverty-63345/</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:05</t>
+          <t>2025-04-17 10:39:37</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Developers Wanted for Global Opportunities</t>
+          <t>Procurement Officer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Geo Pomona Waste Management</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Expires 15 May 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Expires 15 May 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Are you a talented developer eager to work on cutting-edge global projects? We partner with international companies to connect skilled developers like you with high-impact roles that match your expertise and ambitions.</t>
+          <t>We are looking for an astute procurement officer to oversee purchasing activities and ensure that purchased items are both cost-efficient and of high quality. The procurement officer's responsibilities include supervising support staff, maintaining positive supplier relations, evaluating supply options, approving purchases, and maintaining accurate records. To be successful as a …</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Procurement Officer. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/developers-wanted-for-global-opportunities-63331/</t>
+          <t>https://vacancymail.co.zw/jobs/procurement-officer-63343/</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:06</t>
+          <t>2025-04-17 10:39:38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Receptionist/ PA to the Managing Director</t>
+          <t>Credit Control Manager (Harare)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Power Systems Africa</t>
+          <t>Croco Motors</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Expires 22 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Expires 22 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Power Systems Africa is looking for a Dynamic Receptionist who doubles as a PA to the Managing Director on a full time basis.</t>
+          <t>The Group Credit Control Manager will be required to reconcile the accounts receivable ledger, managing past due accounts, reducing bad debts collaboratively with the business, referring and liaising with collection agencies, assessing and processing credit requests, managing policies and procedures.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Credit Control Manager (Harare). Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/receptionist-pa-to-the-managing-director-63338/</t>
+          <t>https://vacancymail.co.zw/jobs/credit-control-manager-harare-63347/</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:06</t>
+          <t>2025-04-17 10:39:39</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Administration Assistant Intern</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Traffic Safety Council of Zimbabwe</t>
+          <t>Safemode Security</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Expires 23 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Expires 23 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TSCZ is seeking an Administration Assistant Intern.</t>
+          <t>Our organization is seeking an experienced and qualified Accountant to join our team. The successful candidate will be responsible for managing financial transactions, preparing financial statements and providing financial guidance to support the organization's goals.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Accountant. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/administration-assistant-intern-63335/</t>
+          <t>https://vacancymail.co.zw/jobs/accountant-63348/</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:07</t>
+          <t>2025-04-17 10:39:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SALES REPS</t>
+          <t>Property Consultants</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Property Solutions Inc.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Expires 16 May 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Expires 16 May 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Young energetic people to fill in the role of sales representatives.</t>
+          <t>Mac Homes Real Estate is seeking to recruit experienced and motivated Property Consultants to work on a commission basis;</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Property Consultants. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/sales-reps-63339/</t>
+          <t>https://vacancymail.co.zw/jobs/property-consultants-63344/</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:08</t>
+          <t>2025-04-17 10:39:41</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Electrical Design Engineer</t>
+          <t>Service Advisor (Harare)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Power Systems Africa</t>
+          <t>Croco Motors</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Expires 30 May 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Expires 30 May 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Are you passionate about designing innovative electrical solutions and ensuring the highest levels of technical excellence? At Power Systems Africa, we're looking for a skilled Electrical Design Engineer to join our growing team and help us deliver industry-leading engineering solutions to our customers.</t>
+          <t>Applications are invited from interested and suitably qualified persons to fill in a vacancy that have arisen in the Group.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Service Advisor (Harare). Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/electrical-design-engineer-63340/</t>
+          <t>https://vacancymail.co.zw/jobs/service-advisor-harare-63346/</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:09</t>
+          <t>2025-04-17 10:39:42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Research Assistant x1, Harare/Mt Darwin</t>
+          <t>Electrical Design Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CeSHHAR Zimbabwe</t>
+          <t>Power Systems Africa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>30 May 2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CeSHHAR Zimbabwe is an organisation that specialises in population health research and programming, including on sexual and reproductive health and HIV/AIDS. CeSHHAR has an extensive national, regional, and international academic and community partnership network. CeSHHAR has a diverse range of funders which include the Wellcome Trust, the Gates Foundation, UK …</t>
+          <t>Are you passionate about designing innovative electrical solutions and ensuring the highest levels of technical excellence? At Power Systems Africa, we're looking for a skilled Electrical Design Engineer to join our growing team and help us deliver industry-leading engineering solutions to our customers.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Electrical Design Engineer. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/research-assistant-x1-hararemt-darwin-63328/</t>
+          <t>https://vacancymail.co.zw/jobs/electrical-design-engineer-63340/</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:10</t>
+          <t>2025-04-17 10:39:43</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Projects Sales Manager</t>
+          <t>Receptionist/ PA to the Managing Director</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Saint-Gobain Gyproc Zimbabwe</t>
+          <t>Power Systems Africa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>22 Apr 2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>To drive projects sales by developing and managing systems and processes for project pipeline sales growth, specification, customer relationship management, technical point of sale material development and skills development/ training to enhance customer service and specification of the Saint-Gobain solutions/ product offering.</t>
+          <t>Power Systems Africa is looking for a Dynamic Receptionist who doubles as a PA to the Managing Director on a full time basis.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Receptionist/ PA to the Managing Director. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/projects-sales-manager-63327/</t>
+          <t>https://vacancymail.co.zw/jobs/receptionist-pa-to-the-managing-director-63338/</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:11</t>
+          <t>2025-04-17 10:39:44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Management Accountant</t>
+          <t>Mechanic</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lightguard Security</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Expires 22 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Expires 22 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Management Accountant is there to analyse key financial information to provide feedback that will aid managerial planning and organization decision making that will ensure future growth and profitability of the company. Part of the Management Accountant’s role is to reduce the operational and production costs for the business by identifying …</t>
+          <t>5 years experienced Mechanic who will be responsible to attend, maintain, repair and diagnose our company vehicles for smooth running of the business</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Mechanic. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/management-accountant-63330/</t>
+          <t>https://vacancymail.co.zw/jobs/mechanic-63332/</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:11</t>
+          <t>2025-04-17 10:39:45</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CASH TRANSFER SERVICES</t>
+          <t>SALES REPS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Development Aid from People to People Zimbabwe(DAPP)</t>
+          <t>SALES Solutions Inc.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>16 May 2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DAPP Zimbabwe invites experienced cash transfer service providers to submit tenders for a four-month project in Epworth District, Harare, funded by Humana People to People Spain. Project Details:  Duration: May 2025 - August 2025 (4 months)  Number of beneficiaries: 1,585  Service requirements: Mobile cash transfers on behalf …</t>
+          <t>Young energetic people to fill in the role of sales representatives.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a SALES REPS. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/cash-transfer-services-63326/</t>
+          <t>https://vacancymail.co.zw/jobs/sales-reps-63339/</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:12</t>
+          <t>2025-04-17 10:39:46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Principal Officer: Catering Industry Pension Fund (CIPF)</t>
+          <t>Baseline Assessment for the project, “Integrated Emergency Response for El Niño Drought Affected Communities in Zimbabwe,</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Catering Industry Pension Fund</t>
+          <t>Oxfam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>25 Apr 2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Site Harare, Zimbabwe Job Purpose We seek an exceptional and strategic leader to fill the role of Principal Officer. As the chief administrator of the Fund, you will provide strategic leadership, oversee investments, finance, human resources, and formulate organizational strategy, ensuring the Fund's overall success and sustainability.</t>
+          <t>Oxfam is a global movement of people who are fighting inequality to end poverty and injustice. Across regions, from the local to the global, we work with people to bring change that lasts. OVERVIEW Title and brief description of the assignment Baseline Assessment for the project, “Integrated Emergency Response for …</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Baseline Assessment for the project, “Integrated Emergency Response for El Niño Drought Affected Communities in Zimbabwe,. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/principal-officer-catering-industry-pension-fund-cipf-63322/</t>
+          <t>https://vacancymail.co.zw/jobs/baseline-assessment-for-the-project-integrated-emergency-response-for-el-nino-drought-affected-communities-in-zimbabwe-63337/</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:13</t>
+          <t>2025-04-17 10:39:47</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>REGISTERED GENERAL NURSE: AIDS HEALTHCARE FOUNDATION    (BEITBRIDGE)</t>
+          <t>IT and Support Graduate trainee</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AIDS HEALTHCARE FOUNDATION</t>
+          <t>Lightguard Security</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Background AHF is an international humanitarian organization operating in Zimbabwe, partnering with Ministry of Health and Child Care as well as local Authorities to create Centers of Excellence in HIV management in health facilities. AHF is looking for highly qualified registered general nurses to fill in the positions that have …</t>
+          <t>We are looking for a highly motivated and dynamic IT Graduate Trainee with a Business Management background, IT support knowledge, and an interest in sales and marketing. This role is ideal for someone eager to expand their career by combining IT expertise with sales and marketing responsibilities.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a IT and Support Graduate trainee. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/registered-general-nurse-aids-healthcare-foundation-beitbridge-63324/</t>
+          <t>https://vacancymail.co.zw/jobs/it-and-support-graduate-trainee-63334/</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:13</t>
+          <t>2025-04-17 10:39:48</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chief Risk Analyst - Quantitative Risk and Data Analytics</t>
+          <t>Administration Assistant Intern</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proserve Consulting</t>
+          <t>Traffic Safety Council of Zimbabwe</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Expires 17 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Expires 17 Apr 2025</t>
+          <t>23 Apr 2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>QUANTITATIVE RISK &amp; DATA ANALYTICS) Financial Services Sector Our client, a premier financial institution, is looking for a qualified and experienced candidate to fill the critical role of Chief Risk Analyst - Quantitative Risk and Data Analytics. The incumbent will be responsible for analysing data to understand and predict potential …</t>
+          <t>TSCZ is seeking an Administration Assistant Intern.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Administration Assistant Intern. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/chief-risk-analyst-quantitative-risk-and-data-analytics-63321/</t>
+          <t>https://vacancymail.co.zw/jobs/administration-assistant-intern-63335/</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:14</t>
+          <t>2025-04-17 10:39:49</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PROJECT ADMINISTRATION ASSISTANT</t>
+          <t>Swimming Coach</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRTI - Biomedical Research and Training Institute</t>
+          <t>Hwange Colliery Company Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Expires 12 May 2025</t>
+          <t>Hwange</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Expires 12 May 2025</t>
+          <t>14 May 2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The Manicaland Centre for Public Health Research at the Biomedical Research and Training Institute (BRTI) conducts scientific population-based research on the incidence and control of HIV and other communicable and non-communicable diseases in east Zimbabwe. Current research projects include a trial of a peer-led intervention to increase men’s use of …</t>
+          <t>SWIMMING COACH (HWANGE PROPERTY COMPANY) Hwange Colliery Company Limited Holdings, a diversified local organization with investment interests in mining, agriculture, energy, medical health, real estate and financial services, has a vacancy for the position of Swimming Coach. This is a supervisory position which reports to the Clubs Manager and requires …</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Swimming Coach. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/project-administration-assistant-63325/</t>
+          <t>https://vacancymail.co.zw/jobs/swimming-coach-63341/</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:15</t>
+          <t>2025-04-17 10:39:50</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Security Guard Patrol Officer</t>
+          <t>Call for Supplier`s Registration for the period (January 2026 to December 2028)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Defcorp (Pvt) Ltd</t>
+          <t>MeDRA - Methodist Development and Relief Agency</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Expires 23 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Expires 23 Apr 2025</t>
+          <t>09 May 2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Location: Harare Job Type: Full-Time Reports To: Operations Manager Job Summary: We are looking for a proactive and reliable Security Guard Patrol Officer to join our operations team. This role involves patrolling assigned sites using a motorbike, overseeing guard deployments, managing shift schedules, and ensuring that all guards are present, …</t>
+          <t>Methodist Development and Relief Agency (MeDRA) Call for Supplier`s Registration for the period (January 2026 to December 2028) ABOUT MEDRA MeDRA is a faith-based local NGO which is part of the mission of The Methodist Church in Zimbabwe whose mandate is to implement Humanitarian and Developmental programmes that promotes socio-economic …</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Call for Supplier`s Registration for the period (January 2026 to December 2028). Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/security-guard-patrol-officer-63329/</t>
+          <t>https://vacancymail.co.zw/jobs/call-for-suppliers-registration-for-the-period-january-2026-to-december-2028-63336/</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:16</t>
+          <t>2025-04-17 10:39:51</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Attachee Digital Marketing</t>
+          <t>Automachanic</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lightguard Security</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Expires 16 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Expires 16 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Employer: Golden Knot Group Category: Sales &amp; Marketing Jobs Tags: Description We are looking for a creative and motivated Digital Marketing Attachee who will be responsible for supporting the existing team. This is an exciting opportunity for a passionate individual eager to gain hands- on experience in digital marketing, content …</t>
+          <t>5 years experienced auto mechanic responsible to attend, diagnose, repair, maintain and report all auto mechanic issues within our organisation</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Automachanic. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/attachee-digital-marketing-63323/</t>
+          <t>https://vacancymail.co.zw/jobs/automachanic-63333/</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:16</t>
+          <t>2025-04-17 10:39:52</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cashier</t>
+          <t>CASH TRANSFER SERVICES</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ledger Paints (Pvt) Ltd</t>
+          <t>Development Aid from People to People Zimbabwe(DAPP)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Expires 28 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Expires 28 Apr 2025</t>
+          <t>25 Apr 2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WE ARE HIRING Cashier needed Join us at Ledger Paints a growing and dynamic organisation as a dedicated Cashier Company name: Ledger Paints Job role: Cashier Terms: Full time job Location: 38b Simon Mazorodze Rd Harare Responsibilities for Cashier • Providing friendly and efficient customer service • Operating cash registers …</t>
+          <t>DAPP Zimbabwe invites experienced cash transfer service providers to submit tenders for a four-month project in Epworth District, Harare, funded by Humana People to People Spain. Project Details:  Duration: May 2025 - August 2025 (4 months)  Number of beneficiaries: 1,585  Service requirements: Mobile cash transfers on behalf …</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a CASH TRANSFER SERVICES. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/cashier-63312/</t>
+          <t>https://vacancymail.co.zw/jobs/cash-transfer-services-63326/</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:18</t>
+          <t>2025-04-17 10:39:54</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Accounts Assistant/ Accounting Assistant</t>
+          <t>PROJECT ADMINISTRATION ASSISTANT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ledger Paints (Pvt) Ltd</t>
+          <t>BRTI - Biomedical Research and Training Institute</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Expires 28 Apr 2025</t>
+          <t>Manicaland</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Expires 28 Apr 2025</t>
+          <t>12 May 2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WE ARE HIRING! Accounts assistant needed Join us at Ledger Paints a growing and dynamic organisation as a dedicated Accounting clerk Company name: Ledger Paints Job role Accounts assistant Terms: Full time job Location: 38b Simon Mazorodze Rd Harare</t>
+          <t>The Manicaland Centre for Public Health Research at the Biomedical Research and Training Institute (BRTI) conducts scientific population-based research on the incidence and control of HIV and other communicable and non-communicable diseases in east Zimbabwe. Current research projects include a trial of a peer-led intervention to increase men’s use of …</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a PROJECT ADMINISTRATION ASSISTANT. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/accounts-assistant-accounting-assistant-63311/</t>
+          <t>https://vacancymail.co.zw/jobs/project-administration-assistant-63325/</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:18</t>
+          <t>2025-04-17 10:39:55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sage Consultant</t>
+          <t>Management Accountant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Olimem Enterprise Solutions ~~ 0</t>
+          <t>Management Solutions Inc.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>22 Apr 2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Olimem Enterprise Solutions (Pvt) Limited is an accredited Sage Business partner with over two decades of experience providing premier payroll and accounting solutions. The company offers a wide array of Sage products, including Sage X3, Sage 300 people payroll, and Sage 300 people HR. As a long-standing Sage Pastel Software …</t>
+          <t>Management Accountant is there to analyse key financial information to provide feedback that will aid managerial planning and organization decision making that will ensure future growth and profitability of the company. Part of the Management Accountant’s role is to reduce the operational and production costs for the business by identifying …</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Management Accountant. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/sage-consultant-63314/</t>
+          <t>https://vacancymail.co.zw/jobs/management-accountant-63330/</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:19</t>
+          <t>2025-04-17 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Students on attachment</t>
+          <t>Projects Sales Manager</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mashambanzou Care Trust</t>
+          <t>Saint-Gobain Gyproc Zimbabwe</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Expires 16 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Expires 16 Apr 2025</t>
+          <t>25 Apr 2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mashambanzou Care Trust is looking for two (2) interns,</t>
+          <t>To drive projects sales by developing and managing systems and processes for project pipeline sales growth, specification, customer relationship management, technical point of sale material development and skills development/ training to enhance customer service and specification of the Saint-Gobain solutions/ product offering.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Projects Sales Manager. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/students-on-attachment-63317/</t>
+          <t>https://vacancymail.co.zw/jobs/projects-sales-manager-63327/</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:20</t>
+          <t>2025-04-17 10:39:57</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Accounting Graduate Trainee</t>
+          <t>Developers Wanted for Global Opportunities</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>First Pack Marketing</t>
+          <t>Developers Solutions Inc.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>15 May 2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>We are looking for a Graduate Trainee to manage the financial book keeping of our business. The responsibility include analysing all financial activities ensuring compliance with accounting ,legal requirements and preparing budgets</t>
+          <t>Are you a talented developer eager to work on cutting-edge global projects? We partner with international companies to connect skilled developers like you with high-impact roles that match your expertise and ambitions.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Developers Wanted for Global Opportunities. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/accounting-graduate-trainee-63316/</t>
+          <t>https://vacancymail.co.zw/jobs/developers-wanted-for-global-opportunities-63331/</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:20</t>
+          <t>2025-04-17 10:39:58</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Project Coordinator MSc (x1) [HAPI]</t>
+          <t>Security Guard Patrol Officer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CeSHHAR Zimbabwe</t>
+          <t>Defcorp (Pvt) Ltd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>23 Apr 2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CeSHHAR Zimbabwe is an organisation that specialises in population health research and programming, including on sexual and reproductive health and HIV/AIDS. CeSHHAR has an extensive national, regional, and international academic and community partnership network. CeSHHAR has a diverse range of funders which include the Wellcome Trust, Gates Foundation, United States …</t>
+          <t>Location: Harare Job Type: Full-Time Reports To: Operations Manager Job Summary: We are looking for a proactive and reliable Security Guard Patrol Officer to join our operations team. This role involves patrolling assigned sites using a motorbike, overseeing guard deployments, managing shift schedules, and ensuring that all guards are present, …</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Security Guard Patrol Officer. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/project-coordinator-msc-x1-hapi-63318/</t>
+          <t>https://vacancymail.co.zw/jobs/security-guard-patrol-officer-63329/</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:21</t>
+          <t>2025-04-17 10:39:59</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rescuer</t>
+          <t>Research Assistant x1, Harare/Mt Darwin</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Spoton Towing &amp; Recovery</t>
+          <t>CeSHHAR Zimbabwe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Expires 20 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Expires 20 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Looking for a competent and qualified person to fill in the position of Rescuer that has arisen</t>
+          <t>CeSHHAR Zimbabwe is an organisation that specialises in population health research and programming, including on sexual and reproductive health and HIV/AIDS. CeSHHAR has an extensive national, regional, and international academic and community partnership network. CeSHHAR has a diverse range of funders which include the Wellcome Trust, the Gates Foundation, UK …</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Research Assistant x1, Harare/Mt Darwin. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/rescuer-63315/</t>
+          <t>https://vacancymail.co.zw/jobs/research-assistant-x1-hararemt-darwin-63328/</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:22</t>
+          <t>2025-04-17 10:39:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MEDICAL OFFICERS: AIDS HEALTHCARE FOUNDATION  (CHITUNGWIZA; BEITBRIDGE; TSHOLOTSHO)</t>
+          <t>Principal Officer: Catering Industry Pension Fund (CIPF)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AIDS HEALTHCARE FOUNDATION</t>
+          <t>Catering Industry Pension Fund</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Expires 25 Apr 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Background AHF is an international humanitarian organization operating in Zimbabwe, partnering with Ministry of Health and Child Care as well as local Authorities to create Centers of Excellence in HIV management in health facilities. AHF is looking for passionate and highly qualified Medical Officers to fill in the positions that …</t>
+          <t>Site Harare, Zimbabwe Job Purpose We seek an exceptional and strategic leader to fill the role of Principal Officer. As the chief administrator of the Fund, you will provide strategic leadership, oversee investments, finance, human resources, and formulate organizational strategy, ensuring the Fund's overall success and sustainability.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Principal Officer: Catering Industry Pension Fund (CIPF). Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/medical-officers-aids-healthcare-foundation-chitungwiza-beitbridge-tsholotsho-63320/</t>
+          <t>https://vacancymail.co.zw/jobs/principal-officer-catering-industry-pension-fund-cipf-63322/</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:22</t>
+          <t>2025-04-17 10:40:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Project Coordinator MSc (x1) [High Horizons]</t>
+          <t>REGISTERED GENERAL NURSE: AIDS HEALTHCARE FOUNDATION    (BEITBRIDGE)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CeSHHAR Zimbabwe</t>
+          <t>AIDS HEALTHCARE FOUNDATION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Beitbridge</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>25 Apr 2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CeSHHAR Zimbabwe is an organisation that specialises in population health research and programming, including on sexual and reproductive health and HIV/AIDS. CeSHHAR has an extensive national, regional, and international academic and community partnership network. CeSHHAR has a diverse range of funders which include the Wellcome Trust, Gates Foundation, United States …</t>
+          <t>Background AHF is an international humanitarian organization operating in Zimbabwe, partnering with Ministry of Health and Child Care as well as local Authorities to create Centers of Excellence in HIV management in health facilities. AHF is looking for highly qualified registered general nurses to fill in the positions that have …</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a REGISTERED GENERAL NURSE: AIDS HEALTHCARE FOUNDATION    (BEITBRIDGE). Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/project-coordinator-msc-x1-high-horizons-63319/</t>
+          <t>https://vacancymail.co.zw/jobs/registered-general-nurse-aids-healthcare-foundation-beitbridge-63324/</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:23</t>
+          <t>2025-04-17 10:40:01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Graduate Trainee Software Developer</t>
+          <t>Attachee Digital Marketing</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wCyber Solutions (Pvt) Ltd</t>
+          <t>Attachee Solutions Inc.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>16 Apr 2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Number of Positions: 1 wCyber Solution is seeking two passionate and highly motivated Graduate Trainee Software Developers to join our development team. This role offers an exciting opportunity to gain hands-on experience in software development while working on innovative projects. As a Graduate Trainee, you will collaborate with senior developers, …</t>
+          <t>Employer: Golden Knot Group Category: Sales &amp; Marketing Jobs Tags: Description We are looking for a creative and motivated Digital Marketing Attachee who will be responsible for supporting the existing team. This is an exciting opportunity for a passionate individual eager to gain hands- on experience in digital marketing, content …</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Attachee Digital Marketing. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/graduate-trainee-software-developer-63313/</t>
+          <t>https://vacancymail.co.zw/jobs/attachee-digital-marketing-63323/</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:24</t>
+          <t>2025-04-17 10:40:02</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Panel Beater</t>
+          <t>Rescuer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bakers Inn</t>
+          <t>Spoton Towing &amp; Recovery</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Expires 16 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Expires 16 Apr 2025</t>
+          <t>20 Apr 2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Panel Beater Applications are invited for the PANEL BEATER vacancy that has arisen within Baker's Inn Sales &amp; Distribution - Northern Region, Harare.</t>
+          <t>Looking for a competent and qualified person to fill in the position of Rescuer that has arisen</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Rescuer. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/panel-beater-63309/</t>
+          <t>https://vacancymail.co.zw/jobs/rescuer-63315/</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:25</t>
+          <t>2025-04-17 10:40:04</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Heavy Machinery Truck Sales Executive</t>
+          <t>Graduate Trainee Software Developer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ST-ONE Machinery</t>
+          <t>wCyber Solutions (Pvt) Ltd</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Expires 30 Apr 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>We are seeking a motivated and results-driven Heavy Machinery Sales Executive to join our dynamic sales team. The successful candidate will be responsible for promoting and selling Howo Trucks, a premier line of heavy-duty vehicles known for their reliability and performance. This position requires a deep understanding of the construction …</t>
+          <t>Number of Positions: 1 wCyber Solution is seeking two passionate and highly motivated Graduate Trainee Software Developers to join our development team. This role offers an exciting opportunity to gain hands-on experience in software development while working on innovative projects. As a Graduate Trainee, you will collaborate with senior developers, …</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Graduate Trainee Software Developer. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/heavy-machinery-truck-sales-executive-63300/</t>
+          <t>https://vacancymail.co.zw/jobs/graduate-trainee-software-developer-63313/</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:26</t>
+          <t>2025-04-17 10:40:05</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TOURISIM &amp; HOSPITALITY TUTOR-BULAWAYO CAMPUS</t>
+          <t>Cashier</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Claremont Business School</t>
+          <t>Ledger Paints (Pvt) Ltd</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>28 Apr 2025</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Applications are invited from suitably qualified and experienced Tutors to teach CTH(Confederation of Tourism &amp; Hospitality) modules at our Bulawayo Campus. This will be strictly on a part time basis.</t>
+          <t>WE ARE HIRING Cashier needed Join us at Ledger Paints a growing and dynamic organisation as a dedicated Cashier Company name: Ledger Paints Job role: Cashier Terms: Full time job Location: 38b Simon Mazorodze Rd Harare Responsibilities for Cashier • Providing friendly and efficient customer service • Operating cash registers …</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Cashier. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/tourisim-hospitality-tutor-bulawayo-campus-63307/</t>
+          <t>https://vacancymail.co.zw/jobs/cashier-63312/</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:27</t>
+          <t>2025-04-17 10:40:06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aluminium Fabrication and Computer Aided Design Instructior.</t>
+          <t>Sage Consultant</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ixar Mobile ~~ 0</t>
+          <t>Olimem Enterprise Solutions ~~ 0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Expires 19 Apr 2025</t>
+          <t>Bulawayo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Expires 19 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Training students in computer aided design and aluminum fabrication in order to be able to create products like windows, doors, doorframes, office partitions e.t.c</t>
+          <t>Olimem Enterprise Solutions (Pvt) Limited is an accredited Sage Business partner with over two decades of experience providing premier payroll and accounting solutions. The company offers a wide array of Sage products, including Sage X3, Sage 300 people payroll, and Sage 300 people HR. As a long-standing Sage Pastel Software …</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Sage Consultant. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/aluminium-fabrication-and-computer-aided-design-instructior-63303/</t>
+          <t>https://vacancymail.co.zw/jobs/sage-consultant-63314/</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:27</t>
+          <t>2025-04-17 10:40:07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASSISTANT LOANS OFFICER</t>
+          <t>Accounting Graduate Trainee</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>First Pack Marketing</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>30 Apr 2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Energetic young people to be trained as loans officer</t>
+          <t>We are looking for a Graduate Trainee to manage the financial book keeping of our business. The responsibility include analysing all financial activities ensuring compliance with accounting ,legal requirements and preparing budgets</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Accounting Graduate Trainee. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/assistant-loans-officer-63301/</t>
+          <t>https://vacancymail.co.zw/jobs/accounting-graduate-trainee-63316/</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:28</t>
+          <t>2025-04-17 10:40:08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Loans Officer</t>
+          <t>Students on attachment</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mashambanzou Care Trust</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>16 Apr 2025</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Experienced personnel to fill in the role of loans officer.</t>
+          <t>Mashambanzou Care Trust is looking for two (2) interns,</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Students on attachment. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/loans-officer-63305/</t>
+          <t>https://vacancymail.co.zw/jobs/students-on-attachment-63317/</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:29</t>
+          <t>2025-04-17 10:40:10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FRENCH LECTURER-BULAWAYO CAMPUS</t>
+          <t>Project Coordinator MSc (x1) [HAPI]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Claremont Business School</t>
+          <t>CeSHHAR Zimbabwe</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Expires 14 May 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Applications are invited from suitably qualified and experienced French Tutors to teach CTH(Confederation of Tourism &amp; Hospitality) students at our Bulawayo Campus. This will be strictly on a part time basis.</t>
+          <t>CeSHHAR Zimbabwe is an organisation that specialises in population health research and programming, including on sexual and reproductive health and HIV/AIDS. CeSHHAR has an extensive national, regional, and international academic and community partnership network. CeSHHAR has a diverse range of funders which include the Wellcome Trust, Gates Foundation, United States …</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Project Coordinator MSc (x1) [HAPI]. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/french-lecturer-bulawayo-campus-63306/</t>
+          <t>https://vacancymail.co.zw/jobs/project-coordinator-msc-x1-hapi-63318/</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:29</t>
+          <t>2025-04-17 10:40:11</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Area Sales Manager/ Business Development Manager</t>
+          <t>Project Coordinator MSc (x1) [High Horizons]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Five Star Industries</t>
+          <t>CeSHHAR Zimbabwe</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Expires 17 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Expires 17 Apr 2025</t>
+          <t>21 Apr 2025</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Responsible for being a key point of contact for all Sales Operations related aspects (e.g. Field Sales, Customers etc) within assigned geographical "Area/Territory" and deliver set objectives/targets.</t>
+          <t>CeSHHAR Zimbabwe is an organisation that specialises in population health research and programming, including on sexual and reproductive health and HIV/AIDS. CeSHHAR has an extensive national, regional, and international academic and community partnership network. CeSHHAR has a diverse range of funders which include the Wellcome Trust, Gates Foundation, United States …</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Project Coordinator MSc (x1) [High Horizons]. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/area-sales-manager-business-development-manager-63304/</t>
+          <t>https://vacancymail.co.zw/jobs/project-coordinator-msc-x1-high-horizons-63319/</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:30</t>
+          <t>2025-04-17 10:40:13</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Senior Finance andAdministration Officer</t>
+          <t>MEDICAL OFFICERS: AIDS HEALTHCARE FOUNDATION  (CHITUNGWIZA; BEITBRIDGE; TSHOLOTSHO)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SAFIRE -Southern Alliance For Indigenous Resources</t>
+          <t>AIDS HEALTHCARE FOUNDATION</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>Beitbridge</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>25 Apr 2025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Duty Station: Harare Reporting to: Director Deadline: Friday 18 April 2025 SAFIRE Purpose: To facilitate Rural communities with resilient livelihoods in a sustainably managed natural environment. Position Summary: The Senior Finance and Administration Officer is responsible for establishing and managing efficient and effective finance and administrative systems for the organisation. …</t>
+          <t>Background AHF is an international humanitarian organization operating in Zimbabwe, partnering with Ministry of Health and Child Care as well as local Authorities to create Centers of Excellence in HIV management in health facilities. AHF is looking for passionate and highly qualified Medical Officers to fill in the positions that …</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a MEDICAL OFFICERS: AIDS HEALTHCARE FOUNDATION  (CHITUNGWIZA; BEITBRIDGE; TSHOLOTSHO). Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/senior-finance-andadministration-officer-63308/</t>
+          <t>https://vacancymail.co.zw/jobs/medical-officers-aids-healthcare-foundation-chitungwiza-beitbridge-tsholotsho-63320/</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:31</t>
+          <t>2025-04-17 10:40:14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Electronic Engineer/Technician</t>
+          <t>Chief Risk Analyst - Quantitative Risk and Data Analytics</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ixar Mobile ~~ 0</t>
+          <t>Proserve Consulting</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Expires 19 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Expires 19 Apr 2025</t>
+          <t>17 Apr 2025</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Training students in electronics repairs covering gadgets like cellphones, computers, inverters e.tc</t>
+          <t>QUANTITATIVE RISK &amp; DATA ANALYTICS) Financial Services Sector Our client, a premier financial institution, is looking for a qualified and experienced candidate to fill the critical role of Chief Risk Analyst - Quantitative Risk and Data Analytics. The incumbent will be responsible for analysing data to understand and predict potential …</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Chief Risk Analyst - Quantitative Risk and Data Analytics. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/electronic-engineertechnician-63302/</t>
+          <t>https://vacancymail.co.zw/jobs/chief-risk-analyst-quantitative-risk-and-data-analytics-63321/</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:32</t>
+          <t>2025-04-17 10:40:15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Supply Chain Attachee (Mutare Branch)</t>
+          <t>Accounts Assistant/ Accounting Assistant</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nash Paints</t>
+          <t>Ledger Paints (Pvt) Ltd</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Expires 14 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Expires 14 Apr 2025</t>
+          <t>28 Apr 2025</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nash Paints is looking for a Procurement, Purchasing and Supply Chains Management Attachee to join their organization.</t>
+          <t>WE ARE HIRING! Accounts assistant needed Join us at Ledger Paints a growing and dynamic organisation as a dedicated Accounting clerk Company name: Ledger Paints Job role Accounts assistant Terms: Full time job Location: 38b Simon Mazorodze Rd Harare</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Accounts Assistant/ Accounting Assistant. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/supply-chain-attachee-mutare-branch-63297/</t>
+          <t>https://vacancymail.co.zw/jobs/accounts-assistant-accounting-assistant-63311/</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:33</t>
+          <t>2025-04-17 10:40:17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Business Development Executive</t>
+          <t>Aluminium Fabrication and Computer Aided Design Instructior.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ixar Mobile ~~ 0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>19 Apr 2025</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BUSINESS DEVELOPMENT EXECUTIVE</t>
+          <t>Training students in computer aided design and aluminum fabrication in order to be able to create products like windows, doors, doorframes, office partitions e.t.c</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Aluminium Fabrication and Computer Aided Design Instructior.. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/business-development-executive-63293/</t>
+          <t>https://vacancymail.co.zw/jobs/aluminium-fabrication-and-computer-aided-design-instructior-63303/</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:34</t>
+          <t>2025-04-17 10:40:18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sales and Business Development Officer</t>
+          <t>FRENCH LECTURER-BULAWAYO CAMPUS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Claremont Business School</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Expires 07 May 2025</t>
+          <t>Bulawayo</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Expires 07 May 2025</t>
+          <t>14 May 2025</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>We are looking for a young at heart, genuine, quick thinker, self starter, dynamic and results-driven person who will be responsible for developing and implementing marketing strategies to drive brand growth, increase sales, and enhance our market position. The role involves assisting in digital marketing, content creation, market research, event …</t>
+          <t>Applications are invited from suitably qualified and experienced French Tutors to teach CTH(Confederation of Tourism &amp; Hospitality) students at our Bulawayo Campus. This will be strictly on a part time basis.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a FRENCH LECTURER-BULAWAYO CAMPUS. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/sales-and-business-development-officer-63299/</t>
+          <t>https://vacancymail.co.zw/jobs/french-lecturer-bulawayo-campus-63306/</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:34</t>
+          <t>2025-04-17 10:40:19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Electrician Class 1</t>
+          <t>TOURISIM &amp; HOSPITALITY TUTOR-BULAWAYO CAMPUS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Zimasco (Pvt) Limited</t>
+          <t>Claremont Business School</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Expires 22 Apr 2025</t>
+          <t>Bulawayo</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Expires 22 Apr 2025</t>
+          <t>14 May 2025</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Zimasco (Pvt) Limited, a major player in Zimbabwe’s Ferrochrome Production sector, has some exciting and challenging career opportunities at its Shurugwi &amp; South Dyke Division. Applications are invited from suitably qualified, competent and experienced individuals to fill the vacant posts in the Division on fixed-term employment contract basis, renewable subject …</t>
+          <t>Applications are invited from suitably qualified and experienced Tutors to teach CTH(Confederation of Tourism &amp; Hospitality) modules at our Bulawayo Campus. This will be strictly on a part time basis.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a TOURISIM &amp; HOSPITALITY TUTOR-BULAWAYO CAMPUS. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/electrician-class-1-63288/</t>
+          <t>https://vacancymail.co.zw/jobs/tourisim-hospitality-tutor-bulawayo-campus-63307/</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:35</t>
+          <t>2025-04-17 10:40:20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Finance Graduate Trainee: Cospharm</t>
+          <t>Senior Finance andAdministration Officer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>SAFIRE -Southern Alliance For Indigenous Resources</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>18 Apr 2025</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FINANCE GRADUATE TRAINEE WE ARE SEEKING A DYNAMIC INDIVIDUAL TO JOIN OUR FINANCE DEPARTMENT BASED IN HARARE. A DAY IN THE LIFE OF A FINANCE GRADUATE TRAINEE WILL INCLUDE:</t>
+          <t>Duty Station: Harare Reporting to: Director Deadline: Friday 18 April 2025 SAFIRE Purpose: To facilitate Rural communities with resilient livelihoods in a sustainably managed natural environment. Position Summary: The Senior Finance and Administration Officer is responsible for establishing and managing efficient and effective finance and administrative systems for the organisation. …</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Senior Finance andAdministration Officer. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/finance-graduate-trainee-cospharm-63291/</t>
+          <t>https://vacancymail.co.zw/jobs/senior-finance-andadministration-officer-63308/</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:36</t>
+          <t>2025-04-17 10:40:21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sales Representative - Gokwe</t>
+          <t>Panel Beater</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bakers Inn</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>16 Apr 2025</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Deadline :14 April 2025 Job Description We are looking for self-driven and enthusiastic sales people to join our company in the motor spares industry, the individual must be based in Gokwe.</t>
+          <t>Panel Beater Applications are invited for the PANEL BEATER vacancy that has arisen within Baker's Inn Sales &amp; Distribution - Northern Region, Harare.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Panel Beater. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/sales-representative-gokwe-63295/</t>
+          <t>https://vacancymail.co.zw/jobs/panel-beater-63309/</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:36</t>
+          <t>2025-04-17 10:40:22</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gardener Kwekwe</t>
+          <t>ASSISTANT LOANS OFFICER</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ASSISTANT Solutions Inc.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Expires 20 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Expires 20 Apr 2025</t>
+          <t>14 May 2025</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Gardener wanted to start asap Kwekwe Looking for an experienced landscaper/ trained gardener. * Look after a home garden doing garden</t>
+          <t>Energetic young people to be trained as loans officer</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a ASSISTANT LOANS OFFICER. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/gardener-kwekwe-63289/</t>
+          <t>https://vacancymail.co.zw/jobs/assistant-loans-officer-63301/</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:37</t>
+          <t>2025-04-17 10:40:23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sales Champion -Solar  Project</t>
+          <t>Loans Officer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nash Furnishers</t>
+          <t>Loans Solutions Inc.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Expires 21 Apr 2025</t>
+          <t>14 May 2025</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>We are seeking a highly motivated and experienced Sales Champion to lead our solar project. The successful candidate will be responsible for driving sales growth, building relationships with key customers, and identifying new business opportunities in the solar industry</t>
+          <t>Experienced personnel to fill in the role of loans officer.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Loans Officer. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/sales-champion-solar-project-63292/</t>
+          <t>https://vacancymail.co.zw/jobs/loans-officer-63305/</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:38</t>
+          <t>2025-04-17 10:40:23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>General Hand</t>
+          <t>Electronic Engineer/Technician</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ixar Mobile ~~ 0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Expires 18 Apr 2025</t>
+          <t>19 Apr 2025</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Location: Harare Job Description We are looking for a Cleaner to carry out cleaning of our facilities on fixed-term contract.</t>
+          <t>Training students in electronics repairs covering gadgets like cellphones, computers, inverters e.tc</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Electronic Engineer/Technician. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/general-hand-63294/</t>
+          <t>https://vacancymail.co.zw/jobs/electronic-engineertechnician-63302/</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:38</t>
+          <t>2025-04-17 10:40:24</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SALES AND MARKETING  INTERN</t>
+          <t>Area Sales Manager/ Business Development Manager</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nash Paints</t>
+          <t>Five Star Industries</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Expires 14 Apr 2025</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Expires 14 Apr 2025</t>
+          <t>17 Apr 2025</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nash Paints is looking for a Sales and Marketing Attachees to join their organization.</t>
+          <t>Responsible for being a key point of contact for all Sales Operations related aspects (e.g. Field Sales, Customers etc) within assigned geographical "Area/Territory" and deliver set objectives/targets.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>No full description available</t>
+          <t>This is a great opportunity to work as a Area Sales Manager/ Business Development Manager. Candidates should be motivated, skilled, and ready to contribute to a dynamic work environment.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://vacancymail.co.zw/jobs/sales-and-marketing-intern-63296/</t>
+          <t>https://vacancymail.co.zw/jobs/area-sales-manager-business-development-manager-63304/</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-04-16 13:34:39</t>
+          <t>2025-04-17 10:40:25</t>
         </is>
       </c>
     </row>
